--- a/Testing/20170906/Excel_Test.xlsx
+++ b/Testing/20170906/Excel_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,36 +336,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K1" sqref="K1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
     </row>

--- a/Testing/20170906/Excel_Test.xlsx
+++ b/Testing/20170906/Excel_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,15 +336,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -372,14 +372,8 @@
       <c r="I1">
         <v>1</v>
       </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -407,14 +401,8 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -440,16 +428,10 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -477,14 +459,8 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -510,16 +486,11 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>